--- a/arquivos_processados/dados_combinados.xlsx
+++ b/arquivos_processados/dados_combinados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,160 +436,165 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>pandas == 2.2.2</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>amazon-order-id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>merchant-order-id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>purchase-date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>last-updated-date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>order-status</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>fulfillment-channel</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>sales-channel</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>order-channel</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ship-service-level</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>product-name</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sku</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>asin</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>item-status</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>item-price</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>item-tax</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>shipping-price</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>shipping-tax</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>gift-wrap-price</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>gift-wrap-tax</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>item-promotion-discount</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ship-promotion-discount</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>ship-city</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>ship-state</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ship-postal-code</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>ship-country</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>promotion-ids</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>payment-method-details</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>cpf</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">ship-county </t>
         </is>
@@ -598,77 +603,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>702-8328556-4448252</t>
+          <t>plotly == 5.24.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2023-05-07T23:36:09+00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-05-07T23:36:19+00:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Amazon.com.br</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>WebsiteOrderChannel</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>FIFINE Microfone dinâmico, XLR/USB para gravação de podcast, microfone de computador para transmissão vocal, jogos de voz, microfone de metal com mudo de microfone, conector de fone de ouvido, controle de volume de monitoramento, pára-brisa-Amplitank K688</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>K688aLI</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>B0B8SNVK5K</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Unshipped</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>697.9</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -676,115 +629,38 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Porto Velho</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Rondônia</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>76829522</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>CreditCard</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>055.207.352-04</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>Tancredo Neves</t>
-        </is>
-      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>701-0647467-0024269</t>
+          <t>streamlit == 1.38.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2023-05-06T02:50:26+00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-05-07T12:58:51+00:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Amazon.com.br</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>WebsiteOrderChannel</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>CHVFEN-Ali</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>B09TNPZ25L</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>266.5</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -792,115 +668,38 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>21920330</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>398.950.847-49</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>Moneró</t>
-        </is>
-      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>701-1816748-7178635</t>
+          <t>datetime == 5.5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-05-06T02:24:25+00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-05-07T12:58:24+00:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Amazon.com.br</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WebsiteOrderChannel</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>CHVFEN-Ali</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>B09TNPZ25L</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>266.5</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -908,115 +707,38 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>2206001</v>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>425.402.348-01</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Vila Gustavo</t>
-        </is>
-      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>701-7489179-0871462</t>
+          <t>openpyxl == 3.1.5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-05-05T14:50:21+00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023-05-06T11:47:06+00:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Amazon.com.br</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>WebsiteOrderChannel</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>CHVFEN-Ali</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>B09TNPZ25L</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>268.5</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1024,558 +746,547 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>São Bernardo do Campo</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>9619110</v>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>091.137.348-90</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Rudge Ramos</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>701-4980407-8729060</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2023-05-05T14:18:02+00:00</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>702-8328556-4448252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-05-05T14:25:56+00:00</t>
+          <t>2023-05-07T23:36:09+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cancelled</t>
+          <t>2023-05-07T23:36:19+00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>CHVFEN-Ali</t>
+          <t>FIFINE Microfone dinâmico, XLR/USB para gravação de podcast, microfone de computador para transmissão vocal, jogos de voz, microfone de metal com mudo de microfone, conector de fone de ouvido, controle de volume de monitoramento, pára-brisa-Amplitank K688</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>B09TNPZ25L</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+          <t>K688aLI</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B0B8SNVK5K</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Unshipped</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>697.9</v>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Sorocaba</t>
-        </is>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>18016440</v>
-      </c>
-      <c r="AB6" t="inlineStr">
+          <t>Porto Velho</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Rondônia</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>76829522</v>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr">
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>CreditCard</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>343.191.048-38</t>
-        </is>
-      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Jardim Gonçalves</t>
+          <t>055.207.352-04</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Tancredo Neves</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>701-0527701-9489013</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2023-05-04T14:44:10+00:00</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>701-0647467-0024269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-05-05T12:48:32+00:00</t>
+          <t>2023-05-06T02:50:26+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>2023-05-07T12:58:51+00:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5700X</t>
+          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>B09VCHQHZ6</t>
+          <t>CHVFEN-Ali</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>B09TNPZ25L</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>1449.5</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>266.5</v>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Guarulhos</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AA7" t="n">
-        <v>7175230</v>
-      </c>
-      <c r="AB7" t="inlineStr">
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>21920330</v>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>360.569.658-99</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Vila Nova Bonsucesso</t>
+          <t>398.950.847-49</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Moneró</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>702-4316144-1046663</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2023-05-02T12:24:17+00:00</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>701-1816748-7178635</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-05-03T12:31:36+00:00</t>
+          <t>2023-05-06T02:24:25+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>2023-05-07T12:58:24+00:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>FIFINE Microfone dinâmico, XLR/USB para gravação de podcast, microfone de computador para transmissão vocal, jogos de voz, microfone de metal com mudo de microfone, conector de fone de ouvido, controle de volume de monitoramento, pára-brisa-Amplitank K688</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>K688aLI</t>
+          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>B0B8SNVK5K</t>
+          <t>CHVFEN-Ali</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>B09TNPZ25L</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>699.99</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>266.5</v>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Sorocaba</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="AA8" t="n">
-        <v>18079187</v>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" t="n">
+        <v>2206001</v>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>474.467.458-51</t>
-        </is>
-      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Jardim Santa Esmeralda</t>
+          <t>425.402.348-01</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Vila Gustavo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>702-3375143-4202638</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2023-04-29T22:16:50+00:00</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>701-7489179-0871462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-05-02T13:03:22+00:00</t>
+          <t>2023-05-05T14:50:21+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2023-05-06T11:47:06+00:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5700X</t>
+          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>B09VCHQHZ6</t>
+          <t>CHVFEN-Ali</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>B09TNPZ25L</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>1449.5</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>268.5</v>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
+          <t>São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>1252000</v>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AB9" t="n">
+        <v>9619110</v>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>CreditCard</t>
-        </is>
-      </c>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>408.311.448-74</t>
+          <t>Installments</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Sumaré</t>
+          <t>091.137.348-90</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Rudge Ramos</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>701-7445622-4441056</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2023-04-26T01:27:24+00:00</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>701-4980407-8729060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-04-29T01:44:27+00:00</t>
+          <t>2023-05-05T14:18:02+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>2023-05-05T14:25:56+00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Cancelled</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5700X</t>
+          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>B09VCHQHZ6</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
+          <t>CHVFEN-Ali</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B09TNPZ25L</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1584,463 +1295,457 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Jaboatão dos Guararapes</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>54220235</v>
-      </c>
-      <c r="AB10" t="inlineStr">
+          <t>Sorocaba</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>18016440</v>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>CreditCard</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>709.885.094-23</t>
-        </is>
-      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Curado</t>
+          <t>343.191.048-38</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Jardim Gonçalves</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>702-6749712-6332229</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2023-04-20T19:15:49+00:00</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>701-0527701-9489013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-04-21T12:18:27+00:00</t>
+          <t>2023-05-04T14:44:10+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>2023-05-05T12:48:32+00:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Carregador U-g-r-e-e-n Usb 4 em 1 Tipo A e Tipo C GanX 100w Detecção de Dispositivo Carga Otimizada Design leve e Portátil Compatível com Notebooks Smartphones Tablets Iphone - 40747 Preto / No Brasil</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>CARALI</t>
+          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>B0B9C4TS99</t>
+          <t>5700X</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>B09VCHQHZ6</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>445.33</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1449.5</v>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Serra</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>29173040</v>
-      </c>
-      <c r="AB11" t="inlineStr">
+          <t>Guarulhos</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>7175230</v>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>002.987.907-85</t>
-        </is>
-      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Manguinhos</t>
+          <t>360.569.658-99</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Vila Nova Bonsucesso</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>702-8539722-6743400</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2023-04-10T23:05:59+00:00</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>702-4316144-1046663</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-04-13T01:33:55+00:00</t>
+          <t>2023-05-02T12:24:17+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>2023-05-03T12:31:36+00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5700X</t>
+          <t>FIFINE Microfone dinâmico, XLR/USB para gravação de podcast, microfone de computador para transmissão vocal, jogos de voz, microfone de metal com mudo de microfone, conector de fone de ouvido, controle de volume de monitoramento, pára-brisa-Amplitank K688</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>B09VCHQHZ6</t>
+          <t>K688aLI</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>B0B8SNVK5K</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>1478.9</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>699.99</v>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Boa Vista</t>
-        </is>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
-        <v>69301040</v>
-      </c>
-      <c r="AB12" t="inlineStr">
+          <t>Sorocaba</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>18079187</v>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>056.228.544-07</t>
+          <t>Installments</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>474.467.458-51</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Jardim Santa Esmeralda</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>701-6219087-1524225</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2023-04-10T22:51:16+00:00</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>702-3375143-4202638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-04-13T01:41:51+00:00</t>
+          <t>2023-04-29T22:16:50+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>2023-05-02T13:03:22+00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>5700X</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>B09VCHQHZ6</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>1478.9</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1449.5</v>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Teresina</t>
-        </is>
-      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>64018500</v>
-      </c>
-      <c r="AB13" t="inlineStr">
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1252000</v>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>027.223.153-35</t>
+          <t>CreditCard</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Vermelha</t>
+          <t>408.311.448-74</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Sumaré</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>701-1468140-3619436</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2023-04-10T19:27:01+00:00</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>701-7445622-4441056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-04-13T01:32:40+00:00</t>
+          <t>2023-04-26T01:27:24+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Shipped</t>
+          <t>2023-04-29T01:44:27+00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>5700X</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>B09VCHQHZ6</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1478.9</v>
-      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2048,1018 +1753,1037 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Salvador</t>
-        </is>
-      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="AA14" t="n">
-        <v>41308325</v>
-      </c>
-      <c r="AB14" t="inlineStr">
+          <t>Jaboatão dos Guararapes</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>54220235</v>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>066.068.965-09</t>
+          <t>CreditCard</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Palestina</t>
+          <t>709.885.094-23</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Curado</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>701-2064452-2269868</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2023-04-08T00:58:43+00:00</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>702-6749712-6332229</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-04-11T12:50:57+00:00</t>
+          <t>2023-04-20T19:15:49+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>2023-04-21T12:18:27+00:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Redragon Teclado para jogos K617 Fizz 60% RGB com fio, 61 teclas, teclado mecânico compacto com teclas pretas, interruptor vermelho linear</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>TECALI</t>
+          <t>Carregador U-g-r-e-e-n Usb 4 em 1 Tipo A e Tipo C GanX 100w Detecção de Dispositivo Carga Otimizada Design leve e Portátil Compatível com Notebooks Smartphones Tablets Iphone - 40747 Preto / No Brasil</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>B09JSZYKYR</t>
+          <t>CARALI</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>B0B9C4TS99</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>445.33</v>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Espirito Santo</t>
-        </is>
-      </c>
-      <c r="AA15" t="n">
-        <v>29090380</v>
-      </c>
-      <c r="AB15" t="inlineStr">
+          <t>Serra</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>29173040</v>
+      </c>
+      <c r="AC15" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr">
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>071.597.107-70</t>
-        </is>
-      </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Jardim Camburi</t>
+          <t>002.987.907-85</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Manguinhos</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>701-2774383-3265002</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2023-04-06T14:41:19+00:00</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>702-8539722-6743400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-04-07T16:26:29+00:00</t>
+          <t>2023-04-10T23:05:59+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>2023-04-13T01:33:55+00:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>CHVFEN-Ali</t>
+          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>B09TNPZ25L</t>
+          <t>5700X</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>B09VCHQHZ6</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>269.99</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>1478.9</v>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Barra de São Miguel</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="AA16" t="n">
-        <v>57180000</v>
-      </c>
-      <c r="AB16" t="inlineStr">
+          <t>Boa Vista</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>69301040</v>
+      </c>
+      <c r="AC16" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr">
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>133.932.944-15</t>
-        </is>
-      </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>----------</t>
+          <t>056.228.544-07</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Centro</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>702-3315791-2469804</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2023-04-05T22:18:53+00:00</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>701-6219087-1524225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-04-06T14:16:33+00:00</t>
+          <t>2023-04-10T22:51:16+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2023-04-13T01:41:51+00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Carregador U-g-r-e-e-n Usb 4 em 1 Tipo A e Tipo C GanX 100w Detecção de Dispositivo Carga Otimizada Design leve e Portátil Compatível com Notebooks Smartphones Tablets Iphone - 40747 Preto / No Brasil</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>CARALI</t>
+          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>B0B9C4TS99</t>
+          <t>5700X</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>B09VCHQHZ6</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>484.9</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1478.9</v>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Uberlândia</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AA17" t="n">
-        <v>38402758</v>
-      </c>
-      <c r="AB17" t="inlineStr">
+          <t>Teresina</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>64018500</v>
+      </c>
+      <c r="AC17" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr">
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>700.691.816-24</t>
-        </is>
-      </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>027.223.153-35</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Vermelha</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>701-9211915-1245033</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2023-04-04T14:18:29+00:00</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>701-1468140-3619436</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-04-05T18:03:00+00:00</t>
+          <t>2023-04-10T19:27:01+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cancelled</t>
+          <t>2023-04-13T01:32:40+00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>PROCESSADOR AMD RYZEN 5 5600 3.5GHz (TURBO 4.4GHz) 32MB CACHE AM4 100-100000927BOX, Cerâmica cinza</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ProcAli</t>
+          <t>PROCESSADOR AMD RYZEN 7 5700X 3.4GHz (TURBO 4.6GHz) 32MB CACHE AM4 100-100000926WOF, Cerâmica cinza</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>B09VCHR1VH</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="inlineStr">
+          <t>5700X</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>B09VCHQHZ6</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>1020.9</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1478.9</v>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AA18" t="n">
-        <v>1028000</v>
-      </c>
-      <c r="AB18" t="inlineStr">
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>41308325</v>
+      </c>
+      <c r="AC18" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr">
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>454.869.768-36</t>
-        </is>
-      </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>066.068.965-09</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Palestina</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>701-2622028-1593008</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2023-04-02T09:39:23+00:00</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>701-2064452-2269868</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-04-02T10:10:44+00:00</t>
+          <t>2023-04-08T00:58:43+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cancelled</t>
+          <t>2023-04-11T12:50:57+00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Redragon Teclado para jogos K617 Fizz 60% RGB com fio, 61 teclas, teclado mecânico compacto com teclas pretas, interruptor vermelho linear</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>TECALI</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>B09JSZYKYR</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>265.9</v>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Londrina</t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="AA19" t="n">
-        <v>86046500</v>
-      </c>
-      <c r="AB19" t="inlineStr">
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Espirito Santo</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>29090380</v>
+      </c>
+      <c r="AC19" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>024.561.029-40</t>
+          <t>Installments</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Jardim Santos Paulo</t>
+          <t>071.597.107-70</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Jardim Camburi</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>701-8116980-4991422</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2023-03-28T18:15:14+00:00</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>701-2774383-3265002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-03-29T17:50:27+00:00</t>
+          <t>2023-04-06T14:41:19+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>2023-04-07T16:26:29+00:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Carregador U-g-r-e-e-n Usb 4 em 1 Tipo A e Tipo C GanX 100w Detecção de Dispositivo Carga Otimizada Design leve e Portátil Compatível com Notebooks Smartphones Tablets Iphone - 40747 Preto / No Brasil</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>CARALI</t>
+          <t>yeacher Original Mijia chave de fenda elétrica 24 em 1 conjunto de chave de fenda de precisão com 24 bits magnéticos de precisão/caixa de alumínio DIY chave de fenda conjunto ferramentas de reparo para uso diário em casa inteligente</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>B0B9C4TS99</t>
+          <t>CHVFEN-Ali</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>B09TNPZ25L</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q20" t="n">
-        <v>485</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>269.99</v>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Campo Grande</t>
-        </is>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="AA20" t="n">
-        <v>79032160</v>
-      </c>
-      <c r="AB20" t="inlineStr">
+          <t>Barra de São Miguel</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>57180000</v>
+      </c>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>013.001.150-92</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Carandá Bosque</t>
+          <t>133.932.944-15</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>----------</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>702-9349428-2417819</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2023-03-24T07:44:33+00:00</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>702-3315791-2469804</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-03-24T17:41:25+00:00</t>
+          <t>2023-04-05T22:18:53+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>2023-04-06T14:16:33+00:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Carregador U-g-r-e-e-n Usb 4 em 1 Tipo A e Tipo C GanX 100w Detecção de Dispositivo Carga Otimizada Design leve e Portátil Compatível com Notebooks Smartphones Tablets Iphone - 40747 Preto / No Brasil</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>CARALI</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>B0B9C4TS99</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q21" t="n">
-        <v>485</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>484.9</v>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>São Luís</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="AA21" t="n">
-        <v>65075692</v>
-      </c>
-      <c r="AB21" t="inlineStr">
+          <t>Uberlândia</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>38402758</v>
+      </c>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>CreditCard</t>
-        </is>
-      </c>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>766.154.133-53</t>
+          <t>Installments</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Renascença</t>
+          <t>700.691.816-24</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>701-2060415-2874663</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2023-03-23T19:52:20+00:00</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>701-9211915-1245033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-03-25T18:01:19+00:00</t>
+          <t>2023-04-04T14:18:29+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Shipped</t>
+          <t>2023-04-05T18:03:00+00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>CXSOMTRON</t>
+          <t>PROCESSADOR AMD RYZEN 5 5600 3.5GHz (TURBO 4.4GHz) 32MB CACHE AM4 100-100000927BOX, Cerâmica cinza</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>B0B42881FY</t>
+          <t>ProcAli</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="inlineStr">
+          <t>B09VCHR1VH</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>1020.9</v>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Cumaru</t>
-        </is>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="AA22" t="n">
-        <v>55655000</v>
-      </c>
-      <c r="AB22" t="inlineStr">
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>1028000</v>
+      </c>
+      <c r="AC22" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr">
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>077.642.254-52</t>
-        </is>
-      </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>----------</t>
+          <t>454.869.768-36</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Centro</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>702-6616782-9350630</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2023-03-17T00:12:55+00:00</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>701-2622028-1593008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-03-17T16:15:24+00:00</t>
+          <t>2023-04-02T09:39:23+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>2023-04-02T10:10:44+00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Cancelled</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>CXSOMTRON</t>
+          <t>Redragon Teclado para jogos K617 Fizz 60% RGB com fio, 61 teclas, teclado mecânico compacto com teclas pretas, interruptor vermelho linear</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>B0B42881FY</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
+          <t>TECALI</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>B09JSZYKYR</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -3068,496 +2792,959 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Lins</t>
-        </is>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AA23" t="n">
-        <v>16403137</v>
-      </c>
-      <c r="AB23" t="inlineStr">
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>86046500</v>
+      </c>
+      <c r="AC23" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>077.186.905-39</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Junqueira</t>
+          <t>024.561.029-40</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Jardim Santos Paulo</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>702-5021795-2472242</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2023-03-15T02:49:42+00:00</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>701-8116980-4991422</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-03-16T14:27:20+00:00</t>
+          <t>2023-03-28T18:15:14+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>2023-03-29T17:50:27+00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>CXSOMTRON</t>
+          <t>Carregador U-g-r-e-e-n Usb 4 em 1 Tipo A e Tipo C GanX 100w Detecção de Dispositivo Carga Otimizada Design leve e Portátil Compatível com Notebooks Smartphones Tablets Iphone - 40747 Preto / No Brasil</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>B0B42881FY</t>
+          <t>CARALI</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>B0B9C4TS99</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>17.27</v>
-      </c>
+      <c r="R24" t="n">
+        <v>485</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Nova Friburgo</t>
-        </is>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="AA24" t="n">
-        <v>28610120</v>
-      </c>
-      <c r="AB24" t="inlineStr">
+          <t>Campo Grande</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>79032160</v>
+      </c>
+      <c r="AC24" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr">
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>116.369.937-37</t>
-        </is>
-      </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>013.001.150-92</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Carandá Bosque</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>702-1337302-6131439</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2023-03-12T16:34:46+00:00</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>702-9349428-2417819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-03-16T14:16:30+00:00</t>
+          <t>2023-03-24T07:44:33+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>2023-03-24T17:41:25+00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>CXSOMTRON</t>
+          <t>Carregador U-g-r-e-e-n Usb 4 em 1 Tipo A e Tipo C GanX 100w Detecção de Dispositivo Carga Otimizada Design leve e Portátil Compatível com Notebooks Smartphones Tablets Iphone - 40747 Preto / No Brasil</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>B0B42881FY</t>
+          <t>CARALI</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>B0B9C4TS99</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Shipped</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>13.42</v>
-      </c>
+      <c r="R25" t="n">
+        <v>485</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AA25" t="n">
-        <v>3977540</v>
-      </c>
-      <c r="AB25" t="inlineStr">
+          <t>São Luís</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>65075692</v>
+      </c>
+      <c r="AC25" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>Installments</t>
-        </is>
-      </c>
+      <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>525.644.618-59</t>
+          <t>CreditCard</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Fazenda da Juta</t>
+          <t>766.154.133-53</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Renascença</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>701-0415329-2723409</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2023-03-11T15:54:06+00:00</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>701-2060415-2874663</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-03-11T16:55:28+00:00</t>
+          <t>2023-03-23T19:52:20+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cancelled</t>
+          <t>2023-03-25T18:01:19+00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>CXSOMTRON</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>B0B42881FY</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>184.5</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Alto Alegre dos Parecis</t>
-        </is>
-      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="AA26" t="n">
-        <v>76952000</v>
-      </c>
-      <c r="AB26" t="inlineStr">
+          <t>Cumaru</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>55655000</v>
+      </c>
+      <c r="AC26" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>063.292.222-23</t>
+          <t>Installments</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
+        <is>
+          <t>077.642.254-52</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
         <is>
           <t>----------</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>702-0713919-9514603</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2023-03-10T20:25:38+00:00</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>702-6616782-9350630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-03-16T14:15:17+00:00</t>
+          <t>2023-03-17T00:12:55+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Shipped</t>
+          <t>2023-03-17T16:15:24+00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Merchant</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Amazon.com.br</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>WebsiteOrderChannel</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>CXSOMTRON</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>B0B42881FY</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Shipped</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>179.9</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>17.27</v>
-      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Lins</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>16403137</v>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Installments</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>077.186.905-39</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Junqueira</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>702-5021795-2472242</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-03-15T02:49:42+00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-03-16T14:27:20+00:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Amazon.com.br</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>WebsiteOrderChannel</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CXSOMTRON</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>B0B42881FY</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Nova Friburgo</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>28610120</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Installments</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>116.369.937-37</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>702-1337302-6131439</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-03-12T16:34:46+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-03-16T14:16:30+00:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Amazon.com.br</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>WebsiteOrderChannel</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CXSOMTRON</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>B0B42881FY</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>3977540</v>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Installments</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>525.644.618-59</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Fazenda da Juta</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>701-0415329-2723409</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-03-11T15:54:06+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-03-11T16:55:28+00:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Amazon.com.br</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>WebsiteOrderChannel</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CXSOMTRON</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>B0B42881FY</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Alto Alegre dos Parecis</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>76952000</v>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>063.292.222-23</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>702-0713919-9514603</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-03-10T20:25:38+00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-03-16T14:15:17+00:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Amazon.com.br</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>WebsiteOrderChannel</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Tronsmart Alto-falante Bluetooth portátil, alto-falante à prova d'água sem fio Trip com saída de 10 W, Bluetooth 5.3, IPX7 à prova d'água, reprodução 20 horas, microfone embutido..</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CXSOMTRON</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>B0B42881FY</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
         <is>
           <t>São Gabriel</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB31" t="n">
         <v>97310621</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr">
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>Installments</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>521.646.160-49</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>Vila Trindade</t>
         </is>
